--- a/data/adult.xlsx
+++ b/data/adult.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squatrim /Desktop/R/shiny/GlioVis_GitHub/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squatrim /Desktop/R/shiny/GlioVis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,9 +119,6 @@
     <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE48865" style="color: rgb(0,0,0)"&gt;RNA-seq&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/27090007" style="color: rgb(0,0,0)"&gt;Kouman&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="http://www.ebi.ac.uk/arrayexpress/experiments/E-MTAB-3892/" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>&lt;a href="http://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE60184" style="color: rgb(0,0,0)"&gt;Microarray&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/27090007" style="color: rgb(0,0,0)"&gt;Kamoun&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -574,10 +574,13 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="96.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -917,10 +920,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -955,10 +958,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -993,10 +996,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1031,10 +1034,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1069,10 +1072,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1107,10 +1110,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1145,10 +1148,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1183,10 +1186,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1221,10 +1224,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1259,10 +1262,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1297,10 +1300,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1335,10 +1338,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1373,10 +1376,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1411,10 +1414,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1449,10 +1452,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1487,10 +1490,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1525,10 +1528,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1563,10 +1566,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1601,10 +1604,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1639,10 +1642,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1677,10 +1680,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
       </c>
       <c r="C30">
         <v>0</v>

--- a/data/adult.xlsx
+++ b/data/adult.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squatrim /Desktop/R/shiny/GlioVis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msquatrito/Desktop/R/shiny/GlioVis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49337681-A82C-C842-8ED8-32E5C2F70997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1640" windowWidth="27500" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="22360" yWindow="2000" windowWidth="27500" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adult.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="75">
   <si>
     <t>Dataset</t>
   </si>
@@ -243,13 +244,19 @@
   </si>
   <si>
     <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/27090007" style="color: rgb(0,0,0)"&gt;Kamoun&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.cgga.org.cn/download.jsp" style="color: rgb(0,0,0)"&gt;RNA-seq&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.ncbi.nlm.nih.gov/pubmed/28291232" style="color: rgb(0,0,0)"&gt;CGGA &lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +268,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,10 +304,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -303,6 +318,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,11 +588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,46 +639,49 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>625</v>
+      </c>
+      <c r="E2">
+        <v>388</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>528</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -669,337 +690,334 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>489</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>489</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>156</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>513</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E6">
-        <v>152</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>225</v>
+        <v>515</v>
       </c>
       <c r="E7">
-        <v>219</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
       <c r="D8">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="E8">
-        <v>159</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
+        <v>159</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1007,37 +1025,37 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>191</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>12</v>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1045,303 +1063,303 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>13</v>
+      <c r="E13">
+        <v>191</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>76</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>59</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>80</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>80</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1350,36 +1368,36 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1388,36 +1406,36 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1428,34 +1446,34 @@
       <c r="E23">
         <v>52</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>13</v>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1464,255 +1482,293 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>43</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>28</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>26</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>21</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>23</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/adult.xlsx
+++ b/data/adult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msquatrito/Desktop/R/shiny/GlioVis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49337681-A82C-C842-8ED8-32E5C2F70997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E4A030-D4B8-954E-B5C3-1C6C5596C79A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22360" yWindow="2000" windowWidth="27500" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
